--- a/biology/Médecine/Ferritine/Ferritine.xlsx
+++ b/biology/Médecine/Ferritine/Ferritine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ferritine est une protéine permettant le stockage du fer. Elle joue un rôle clé dans le métabolisme du fer, permettant de réguler son absorption intestinale en fonction des besoins de l'organisme. Elle a ainsi une fonction de réserve et de détoxication du fer. Le dosage de la ferritine plasmatique est le reflet des réserves tissulaires mobilisables. Son dosage permet d'évaluer les réserves en fer et ainsi de dépister précocement une carence en fer ou à l'opposé d'apprécier une remontée des réserves lors d'un traitement par supplémentation ferrique.
@@ -514,11 +526,13 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ferritine est une protéine constituée de 24 sous-unités qui s'assemblent pour former une coquille creuse, de manière analogue à la capside de certains virus[2]. Suivant les espèces, on peut trouver soit un seul type (chez les plantes), soit deux types de sous-unités de ferritine. En particulier, chez les vertébrés, ces sous-unités se divisent en deux types ayant 50 % d'homologie[2] : sous-unité lourde (nommée H pour heavy) et sous-unité légère (nommée L pour light). Ces deux sous-unités ont, respectivement, une masse moléculaire de 19 kDa et 21 kDa. La masse moléculaire de la protéine est d'environ 474 kDa.
-Le diamètre intérieur de cette coquille est de 8 nm et son diamètre extérieur est de 12 nm[3]. La coquille constituée par cet assemblage permet de stocker le fer à l'intérieur sous forme de cristallites, avec des ions phosphate et/ou hydroxyde. La particule résultante ressemble à un oxyhydroxyde de fer minéral. Chaque molécule de ferritine peut contenir jusqu'à 4500 atomes de fer sous forme ferrique (Fe3+)[3].
-L'entrée de fer dans l'apo-ferritine (c'est-à-dire « ferritine ne contenant pas de fer ») dépend de l'activité ferroxydase de la sous-unité H[4]. Il est probable que la sortie du fer hors de la ferritine ne nécessite pas de machinerie extérieure spécifique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ferritine est une protéine constituée de 24 sous-unités qui s'assemblent pour former une coquille creuse, de manière analogue à la capside de certains virus. Suivant les espèces, on peut trouver soit un seul type (chez les plantes), soit deux types de sous-unités de ferritine. En particulier, chez les vertébrés, ces sous-unités se divisent en deux types ayant 50 % d'homologie : sous-unité lourde (nommée H pour heavy) et sous-unité légère (nommée L pour light). Ces deux sous-unités ont, respectivement, une masse moléculaire de 19 kDa et 21 kDa. La masse moléculaire de la protéine est d'environ 474 kDa.
+Le diamètre intérieur de cette coquille est de 8 nm et son diamètre extérieur est de 12 nm. La coquille constituée par cet assemblage permet de stocker le fer à l'intérieur sous forme de cristallites, avec des ions phosphate et/ou hydroxyde. La particule résultante ressemble à un oxyhydroxyde de fer minéral. Chaque molécule de ferritine peut contenir jusqu'à 4500 atomes de fer sous forme ferrique (Fe3+).
+L'entrée de fer dans l'apo-ferritine (c'est-à-dire « ferritine ne contenant pas de fer ») dépend de l'activité ferroxydase de la sous-unité H. Il est probable que la sortie du fer hors de la ferritine ne nécessite pas de machinerie extérieure spécifique.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La régulation de l'expression des gènes codant la ferritine est contrôlée par un mécanisme de régulation post-transcriptionnelle faisant intervenir une structure en épingle à cheveux spécifique qui est nommé IRE[6]. Cette structure est située dans la région 5'-UTR de son ARN messager. En situation de carence en fer, les protéines régulatrices du fer (aussi nommées IRP) viennent se fixer sur cet IRE et inhibent la traduction de l'ARN messager en protéine.
-La synthèse de la ferritine est aussi régulée au niveau transcriptionnel par la présence d'un élément de réponse antioxydant (ARE) situé dans la partie 5'-UTR des gènes des sous-unités L et H de la ferritine[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La régulation de l'expression des gènes codant la ferritine est contrôlée par un mécanisme de régulation post-transcriptionnelle faisant intervenir une structure en épingle à cheveux spécifique qui est nommé IRE. Cette structure est située dans la région 5'-UTR de son ARN messager. En situation de carence en fer, les protéines régulatrices du fer (aussi nommées IRP) viennent se fixer sur cet IRE et inhibent la traduction de l'ARN messager en protéine.
+La synthèse de la ferritine est aussi régulée au niveau transcriptionnel par la présence d'un élément de réponse antioxydant (ARE) situé dans la partie 5'-UTR des gènes des sous-unités L et H de la ferritine.
 </t>
         </is>
       </c>
@@ -581,20 +597,97 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Valeurs normales
-Les valeurs de référence sont plus élevées chez l'homme que chez la femme.
+          <t>Valeurs normales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les valeurs de référence sont plus élevées chez l'homme que chez la femme.
 Homme : 20  à   310 μg·L-1
 Femme : 20  à   204 μg·L-1
 après la ménopause : 20  à   250/300 μg·L-1
-Une étude remet en question les valeurs de références de la ferritine, avançant qu'avoir des valeurs de référence différentes concernant la ferritine pour les hommes et les femmes n'est pas justifié[8].
-Variations physiologiques
-Avec l'âge : Les concentrations de ferritine sont particulièrement élevées à la naissance (400 μg·l-1) et le taux maximum est atteint vers deux mois de vie (600 μg·l-1). Puis on observe une diminution pour atteindre les taux adultes physiologiques après la puberté. Chez l'homme, la médiane augmente de 23 μg·l-1 avant l'adolescence pour atteindre un plateau à 120 μg·l-1 après 32 ans. Chez la femme, le taux reste stable aux alentours de 30 μg·l-1 jusqu'à la ménopause et progresse ensuite jusqu'à 80 μg·l-1.
+Une étude remet en question les valeurs de références de la ferritine, avançant qu'avoir des valeurs de référence différentes concernant la ferritine pour les hommes et les femmes n'est pas justifié.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ferritine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferritine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Concentrations physiologiques chez l'humain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variations physiologiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avec l'âge : Les concentrations de ferritine sont particulièrement élevées à la naissance (400 μg·l-1) et le taux maximum est atteint vers deux mois de vie (600 μg·l-1). Puis on observe une diminution pour atteindre les taux adultes physiologiques après la puberté. Chez l'homme, la médiane augmente de 23 μg·l-1 avant l'adolescence pour atteindre un plateau à 120 μg·l-1 après 32 ans. Chez la femme, le taux reste stable aux alentours de 30 μg·l-1 jusqu'à la ménopause et progresse ensuite jusqu'à 80 μg·l-1.
 Avec le sexe : taux plus élevés chez l'homme que chez la femme, avant la ménopause.
 Avec la grossesse : diminution du taux lors de la grossesse, surtout lors du 3e trimestre.
-Avec l'exercice physique : diminution du taux lors d'exercice physique intensif et régulier.
-Variations pathologiques
-Diminution = hypoferritinémie
-Une diminution du taux de ferritine (hypoferritinémie), particulièrement érythrocytaire, est observée le plus souvent dans le cadre d'une anémie microcytaire. Il se rencontre dans de nombreuses causes, physiologique ou pathologique :
+Avec l'exercice physique : diminution du taux lors d'exercice physique intensif et régulier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ferritine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferritine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Concentrations physiologiques chez l'humain</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variations pathologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Diminution = hypoferritinémie</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une diminution du taux de ferritine (hypoferritinémie), particulièrement érythrocytaire, est observée le plus souvent dans le cadre d'une anémie microcytaire. Il se rencontre dans de nombreuses causes, physiologique ou pathologique :
 Hémorragies
 gynécologiques
 occultes
@@ -604,10 +697,49 @@
 Régime alimentaire déséquilibré
 Grossesses multiples rapprochées
 Les traitements peuvent être administrés par voir orale (complexe fer hydroxyde-polymaltose) ou parentérale (carboxymaltose ferrique).
-Augmentation = hyperferritinémie
-Il y a hyperferritinémie, c'est-à-dire élévation anormale du taux de ferritine plasmatique lorsque ce taux est supérieur à 300 μg·l-1 chez l’homme et à 200 μg·l-1 chez la femme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ferritine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferritine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Concentrations physiologiques chez l'humain</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Variations pathologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Augmentation = hyperferritinémie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Il y a hyperferritinémie, c'est-à-dire élévation anormale du taux de ferritine plasmatique lorsque ce taux est supérieur à 300 μg·l-1 chez l’homme et à 200 μg·l-1 chez la femme.
 Cette augmentation du taux de ferritine sanguin est principalement due à une surcharge en fer intracellulaire, à une cytolyse hépatique, une inflammation ou une prise d'alcool.
-L'hyperferritémie peut être classée suivant l'existence ou non d'une surcharge en fer[9] :
+L'hyperferritémie peut être classée suivant l'existence ou non d'une surcharge en fer :
 avec surcharge en fer
 hémochromatose
 multi transfusion sanguine
